--- a/data/trans_dic/P34C_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,08; 75,26</t>
+          <t>64,11; 75,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,59; 72,15</t>
+          <t>63,33; 72,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,37; 72,24</t>
+          <t>65,59; 72,45</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,6; 58,39</t>
+          <t>48,11; 59,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,74; 47,81</t>
+          <t>39,55; 47,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,72; 51,27</t>
+          <t>44,77; 51,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 29,32</t>
+          <t>20,25; 29,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,79; 32,65</t>
+          <t>23,98; 32,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 29,77</t>
+          <t>23,37; 29,66</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,51; 40,69</t>
+          <t>28,35; 40,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,46; 37,25</t>
+          <t>27,3; 37,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,12</t>
+          <t>29,27; 37,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,64; 89,11</t>
+          <t>80,95; 89,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,07; 85,0</t>
+          <t>77,73; 85,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,75; 86,22</t>
+          <t>80,57; 86,36</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 16,69</t>
+          <t>8,28; 16,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,68</t>
+          <t>13,16; 21,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 17,0</t>
+          <t>11,84; 17,3</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>51,26; 60,25</t>
+          <t>51,18; 60,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,62; 49,72</t>
+          <t>25,68; 49,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,84; 52,87</t>
+          <t>36,53; 53,07</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,73; 40,38</t>
+          <t>29,3; 40,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,77; 32,62</t>
+          <t>25,83; 32,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,92; 35,22</t>
+          <t>28,72; 35,14</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>42,16; 46,75</t>
+          <t>42,06; 46,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,84; 41,0</t>
+          <t>35,48; 41,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,17; 43,12</t>
+          <t>39,33; 43,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34C_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>70,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,11; 75,45</t>
+          <t>65,15; 77,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,33; 72,01</t>
+          <t>63,83; 72,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,59; 72,45</t>
+          <t>66,43; 73,76</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,13%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>48,85%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,11; 59,02</t>
+          <t>48,7; 59,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,55; 47,56</t>
+          <t>39,81; 47,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,77; 51,57</t>
+          <t>45,26; 52,39</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 29,6</t>
+          <t>20,15; 29,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,98; 32,53</t>
+          <t>24,08; 32,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 29,66</t>
+          <t>23,32; 29,69</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>29,86%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,35; 40,83</t>
+          <t>28,27; 40,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,3; 37,25</t>
+          <t>15,44; 34,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,27; 37,33</t>
+          <t>22,32; 35,01</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,94%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,56%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,95; 89,53</t>
+          <t>81,02; 89,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,73; 85,36</t>
+          <t>77,81; 85,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,57; 86,36</t>
+          <t>80,69; 86,31</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 16,13</t>
+          <t>8,32; 16,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,16; 21,04</t>
+          <t>13,2; 21,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,3</t>
+          <t>11,74; 17,27</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>44,9%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>51,18; 60,35</t>
+          <t>50,7; 60,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,68; 49,43</t>
+          <t>17,13; 49,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,53; 53,07</t>
+          <t>28,63; 53,12</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,3; 40,43</t>
+          <t>13,37; 39,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,83; 32,36</t>
+          <t>25,49; 31,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,72; 35,14</t>
+          <t>16,65; 33,87</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>40,18%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>42,06; 46,71</t>
+          <t>34,03; 46,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,48; 41,12</t>
+          <t>30,46; 40,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,33; 43,34</t>
+          <t>35,25; 43,1</t>
         </is>
       </c>
     </row>
